--- a/public/assets/backend-assets/images/SampleExcel/carlist.xlsx
+++ b/public/assets/backend-assets/images/SampleExcel/carlist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>brandname</t>
   </si>
@@ -30,9 +30,6 @@
     <t>colorcode</t>
   </si>
   <si>
-    <t>Maruti</t>
-  </si>
-  <si>
     <t>Fronx</t>
   </si>
   <si>
@@ -45,43 +42,34 @@
     <t>green</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
-    <t>navbyblue</t>
-  </si>
-  <si>
-    <t>blue1</t>
-  </si>
-  <si>
-    <t>blue2</t>
-  </si>
-  <si>
-    <t>blue3</t>
-  </si>
-  <si>
-    <t>#48454c2</t>
-  </si>
-  <si>
-    <t>#48454c3</t>
-  </si>
-  <si>
-    <t>#48454c4</t>
-  </si>
-  <si>
-    <t>#48454c5</t>
-  </si>
-  <si>
-    <t>#48454c6</t>
-  </si>
-  <si>
-    <t>#48454c7</t>
+    <t>Maruti Suzuki</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Loniq 5</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>#A020F0</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>Nexon EV</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>#000000</t>
   </si>
 </sst>
 </file>
@@ -458,15 +446,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
@@ -487,58 +476,58 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -565,16 +554,16 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -601,16 +590,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -637,16 +626,16 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -673,16 +662,16 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -706,6 +695,34 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/assets/backend-assets/images/SampleExcel/carlist.xlsx
+++ b/public/assets/backend-assets/images/SampleExcel/carlist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>brandname</t>
   </si>
@@ -66,10 +66,13 @@
     <t>Nexon EV</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>#000000</t>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>#000000,#48454c</t>
+  </si>
+  <si>
+    <t>black,yellow</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,10 +721,24 @@
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
